--- a/biology/Médecine/Acrocyanose/Acrocyanose.xlsx
+++ b/biology/Médecine/Acrocyanose/Acrocyanose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acrocyanose est un acrosyndrome vasculaire permanent. Il provoque des extrémités froides, bleues et moites, surtout en hiver.
 L'acrocyanose est différente de la maladie de Raynaud qui est paroxystique (elle apparaît par crises).
